--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.793823</v>
+        <v>11.629057</v>
       </c>
       <c r="H2">
-        <v>32.381469</v>
+        <v>34.887171</v>
       </c>
       <c r="I2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977661</v>
       </c>
       <c r="J2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977662</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.440024666666667</v>
+        <v>10.41202966666667</v>
       </c>
       <c r="N2">
-        <v>19.320074</v>
+        <v>31.236089</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>69.51248636763401</v>
+        <v>121.0820864793577</v>
       </c>
       <c r="R2">
-        <v>625.6123773087061</v>
+        <v>1089.738778314219</v>
       </c>
       <c r="S2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977661</v>
       </c>
       <c r="T2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>71.412368</v>
       </c>
       <c r="I3">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="J3">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>6.440024666666667</v>
+        <v>10.41202966666667</v>
       </c>
       <c r="N3">
-        <v>19.320074</v>
+        <v>31.236089</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>153.2991371416925</v>
+        <v>247.8492313943058</v>
       </c>
       <c r="R3">
-        <v>1379.692234275232</v>
+        <v>2230.643082548752</v>
       </c>
       <c r="S3">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="T3">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.647959666666667</v>
+        <v>2.537038666666667</v>
       </c>
       <c r="H4">
-        <v>4.943879000000001</v>
+        <v>7.611116</v>
       </c>
       <c r="I4">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="J4">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>6.440024666666667</v>
+        <v>10.41202966666667</v>
       </c>
       <c r="N4">
-        <v>19.320074</v>
+        <v>31.236089</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>10.61290090300511</v>
+        <v>26.41572186281378</v>
       </c>
       <c r="R4">
-        <v>95.51610812704602</v>
+        <v>237.741496765324</v>
       </c>
       <c r="S4">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="T4">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
     </row>
   </sheetData>
